--- a/public/reporte/FormatoReporteControlPrevio.xlsx
+++ b/public/reporte/FormatoReporteControlPrevio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.yepez\Documents\Desarrollos\PHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.yepez\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAEFEE4-CAA7-4BB8-A620-E3CBF4699B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE229D6B-5FB0-4589-B9F4-B9A06F3FB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5A082DA-2D5D-4539-8D00-87603D3B1FE4}"/>
   </bookViews>
@@ -271,11 +271,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1171576</xdr:colOff>
+      <xdr:colOff>124259</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>49016</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1057273" cy="1078356"/>
+    <xdr:ext cx="961157" cy="980324"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1">
@@ -303,8 +303,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705851" y="0"/>
-          <a:ext cx="1057273" cy="1078356"/>
+          <a:off x="9020609" y="49016"/>
+          <a:ext cx="961157" cy="980324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,22 +617,24 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="16.58203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -642,9 +644,8 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -652,9 +653,8 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -664,9 +664,8 @@
       <c r="E3" s="9"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -676,9 +675,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -688,9 +686,8 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -700,9 +697,8 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -712,9 +708,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -724,9 +719,8 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -736,9 +730,8 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -748,9 +741,8 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -762,20 +754,19 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/reporte/FormatoReporteControlPrevio.xlsx
+++ b/public/reporte/FormatoReporteControlPrevio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augusto.yepez\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE229D6B-5FB0-4589-B9F4-B9A06F3FB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A574A57-7668-49F0-B902-D55BFF38FF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5A082DA-2D5D-4539-8D00-87603D3B1FE4}"/>
   </bookViews>
@@ -271,7 +271,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>124259</xdr:colOff>
+      <xdr:colOff>267134</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>49016</xdr:rowOff>
     </xdr:from>
@@ -303,7 +303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9020609" y="49016"/>
+          <a:off x="9325409" y="49016"/>
           <a:ext cx="961157" cy="980324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -620,18 +620,18 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.4140625" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="16.58203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -770,7 +770,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>